--- a/dataset/PlantingTree100.xlsx
+++ b/dataset/PlantingTree100.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22908" windowHeight="8868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22908" windowHeight="8868"/>
   </bookViews>
   <sheets>
-    <sheet name="植树类" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="工程类" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">植树类!$C$1:$C$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$101</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -936,7 +936,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2157,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
